--- a/data/income_statement/3digits/total/431_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/431_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>431-Demolition and site preparation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>431-Demolition and site preparation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2545355.82708</v>
@@ -956,37 +862,42 @@
         <v>3379041.97628</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4252674.4424</v>
+        <v>4252774.7949</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4927673.37223</v>
+        <v>5012871.31587</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6601445.87601</v>
+        <v>6636263.7007</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7191158.272759999</v>
+        <v>7309491.201540001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8002688.339790001</v>
+        <v>8509578.56247</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11589232.88399</v>
+        <v>10590459.67965</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13280330.72273</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16029570.31709</v>
+        <v>16089444.45543</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14630859.00811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15239305.24872</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14266538.371</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2415267.9381</v>
@@ -995,58 +906,63 @@
         <v>3177573.0257</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4024459.33812</v>
+        <v>4024559.69062</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4646378.94545</v>
+        <v>4730264.3727</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6255049.53383</v>
+        <v>6288690.053760001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6812633.440030001</v>
+        <v>6930387.88411</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7587914.209310001</v>
+        <v>8075499.48657</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11252167.5134</v>
+        <v>10253159.71668</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12697456.9203</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15027260.30312</v>
+        <v>15081671.25151</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13782427.78969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14383081.39434</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13563060.406</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>46404.49814000001</v>
+        <v>46404.49814</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>59609.79859000001</v>
+        <v>59609.79859</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>71789.53770999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>77669.44811000001</v>
+        <v>78653.28838</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>96950.45728999999</v>
+        <v>97792.89029000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>134909.31617</v>
+        <v>134959.31617</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>163406.76766</v>
+        <v>173509.84826</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>134724.27059</v>
@@ -1055,16 +971,21 @@
         <v>246993.67699</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>592521.86683</v>
+        <v>595031.12682</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>494446.30105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>494837.09794</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>308495.068</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>83683.39084000001</v>
@@ -1076,34 +997,39 @@
         <v>156425.56657</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>203624.97867</v>
+        <v>203953.65479</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>249445.88489</v>
+        <v>249780.75665</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>243615.51656</v>
+        <v>244144.00126</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>251367.36282</v>
+        <v>260569.22764</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>202341.1</v>
+        <v>202575.69238</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>335880.12544</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>409788.14714</v>
+        <v>412742.0770999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>353984.91737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>361386.75644</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>394982.897</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>11409.16201</v>
@@ -1115,34 +1041,39 @@
         <v>14923.88419</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10786.70847</v>
+        <v>10867.22127</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10395.39499</v>
+        <v>10395.99499</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>14440.00029</v>
+        <v>14642.25516</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11105.72533</v>
+        <v>14149.20304</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1052284.42501</v>
+        <v>52084.19669999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>59090.25909000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>126001.30088</v>
+        <v>126454.14848</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>48216.64275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>48642.92305</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>162955.2</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4277.32279</v>
@@ -1154,34 +1085,39 @@
         <v>10690.33949</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9248.233990000001</v>
+        <v>9328.746790000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8782.165219999999</v>
+        <v>8782.765219999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11085.02286</v>
+        <v>11254.24177</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8584.534530000001</v>
+        <v>8695.868400000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1046422.32369</v>
+        <v>46222.09538</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>55365.88059</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>118689.37368</v>
+        <v>119142.13628</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>39475.25066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>39783.09192</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>147899.89</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>581.61748</v>
@@ -1190,19 +1126,19 @@
         <v>410.41004</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>859.47409</v>
+        <v>859.4740899999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1073.01276</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>748.7800500000001</v>
+        <v>748.78005</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>715.04842</v>
+        <v>716.41439</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1178.5568</v>
+        <v>4022.30937</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1959.59053</v>
@@ -1211,16 +1147,21 @@
         <v>1270.09555</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1657.18886</v>
+        <v>1657.27386</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1209.9716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1328.41064</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1458.847</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>6550.22174</v>
@@ -1238,10 +1179,10 @@
         <v>864.44972</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2639.92901</v>
+        <v>2671.599</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1342.634</v>
+        <v>1431.02527</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3902.51079</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>7531.42049</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>13596.463</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2533946.66507</v>
@@ -1268,37 +1214,42 @@
         <v>3373622.23186</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4237750.55821</v>
+        <v>4237850.91071</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4916886.66376</v>
+        <v>5002004.094599999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6591050.48102</v>
+        <v>6625867.70571</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7176718.27247</v>
+        <v>7294848.946380001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7991582.614460001</v>
+        <v>8495429.35943</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10536948.45898</v>
+        <v>10538375.48295</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13221240.46364</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15903569.01621</v>
+        <v>15962990.30695</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14582642.36536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15190662.32567</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14103583.171</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2037032.77329</v>
@@ -1307,37 +1258,42 @@
         <v>2822160.36202</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3511241.917129999</v>
+        <v>3511256.03587</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4212451.674889999</v>
+        <v>4303159.697319999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5667189.00849</v>
+        <v>5696796.51972</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6178134.15359</v>
+        <v>6288459.296689999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6771748.17368</v>
+        <v>7245200.07154</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8697699.05387</v>
+        <v>8698252.32673</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>10927713.00182</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13509384.46253</v>
+        <v>13558152.5603</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12167525.0471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12709239.24733</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12465204.922</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>137600.76825</v>
@@ -1349,16 +1305,16 @@
         <v>203856.36727</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>277669.85701</v>
+        <v>278273.51283</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>250145.37688</v>
+        <v>250381.74413</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>357555.51304</v>
+        <v>364151.67114</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>347820.75011</v>
+        <v>360422.24502</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>420701.98614</v>
@@ -1367,16 +1323,21 @@
         <v>574940.05686</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>590492.85158</v>
+        <v>593444.2448999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>585304.16236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>600829.24971</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>803471.883</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>314669.87089</v>
@@ -1388,34 +1349,39 @@
         <v>444938.04549</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>515614.3480100001</v>
+        <v>516535.3195</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>714180.39124</v>
+        <v>715414.54805</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>693867.79301</v>
+        <v>698733.62174</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>904469.06819</v>
+        <v>928342.2547</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1297601.07444</v>
+        <v>1297548.75373</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1505759.62866</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1913966.37214</v>
+        <v>1920461.70026</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1742772.19475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1838197.51477</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1844843.712</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1577622.97629</v>
@@ -1424,37 +1390,42 @@
         <v>2149635.38344</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2845230.63494</v>
+        <v>2845244.75368</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3389874.75787</v>
+        <v>3479058.15299</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4672156.288310001</v>
+        <v>4697987.22919</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5081777.214029999</v>
+        <v>5178243.1312</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5459633.206610001</v>
+        <v>5892593.51745</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6906166.29644</v>
+        <v>6906582.66382</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>8730846.175319999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>10861273.45181</v>
+        <v>10900336.90563</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9674198.192090001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10099351.06687</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>9657294.878</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7139.157859999999</v>
@@ -1469,31 +1440,36 @@
         <v>29292.712</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>30706.95206</v>
+        <v>33012.99835</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>44933.63351000001</v>
+        <v>47330.87261</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>59825.14876999999</v>
+        <v>63842.05437000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>73229.69684999999</v>
+        <v>73418.92303999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>116167.14098</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>143651.787</v>
+        <v>143909.70951</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>165250.4979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>170861.41598</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>159594.449</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>496913.8917799999</v>
@@ -1502,37 +1478,42 @@
         <v>551461.8698400001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>726508.64108</v>
+        <v>726594.8748400001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>704434.9888699999</v>
+        <v>698844.3972799999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>923861.47253</v>
+        <v>929071.18599</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>998584.11888</v>
+        <v>1006389.64969</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1219834.44078</v>
+        <v>1250229.28789</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1839249.40511</v>
+        <v>1840123.15622</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2293527.46182</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2394184.55368</v>
+        <v>2404837.74665</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2415117.31826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2481423.07834</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1638378.249</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>379773.77039</v>
@@ -1541,37 +1522,42 @@
         <v>425174.47984</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>598630.3261800001</v>
+        <v>598641.86025</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>542800.04191</v>
+        <v>546915.15847</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>690340.8007</v>
+        <v>695894.67752</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>807345.70129</v>
+        <v>815576.73948</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>732293.28486</v>
+        <v>761180.8710699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>871973.93756</v>
+        <v>873190.6095</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1050110.72337</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1265635.86018</v>
+        <v>1276719.98767</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1191834.19788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1197274.13668</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1269188.769</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1725.94694</v>
@@ -1583,7 +1569,7 @@
         <v>1974.45523</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>709.9154100000001</v>
+        <v>709.91541</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1416.79208</v>
@@ -1592,10 +1578,10 @@
         <v>1616.2663</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3556.4892</v>
+        <v>3559.938630000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4164.63311</v>
+        <v>4164.633110000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1578.78915</v>
@@ -1604,13 +1590,18 @@
         <v>1912.27528</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3790.18524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3790.78524</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5257.757</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>38100.24925</v>
@@ -1622,34 +1613,39 @@
         <v>80715.2227</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>64998.15252999999</v>
+        <v>65018.06595</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>65657.14818</v>
+        <v>65898.4491</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>67355.11061</v>
+        <v>69788.04918</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>66193.24424</v>
+        <v>66734.41415999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>93294.93779</v>
+        <v>93293.47742</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>137592.71962</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>165692.02644</v>
+        <v>166629.19761</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>142200.55088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>142961.95131</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>145696.568</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>339947.5742</v>
@@ -1658,37 +1654,42 @@
         <v>382326.84999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>515940.64825</v>
+        <v>515952.1823199999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>477091.9739700001</v>
+        <v>481187.17711</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>623266.8604400001</v>
+        <v>628579.43634</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>738374.32438</v>
+        <v>744172.424</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>662543.5514199999</v>
+        <v>690886.51828</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>774514.3666600001</v>
+        <v>775732.4989700001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>910939.2146000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1098031.55846</v>
+        <v>1108178.51478</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1045843.46176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1050521.40013</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1118234.444</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>117140.12139</v>
@@ -1697,37 +1698,42 @@
         <v>126287.39</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>127878.3149</v>
+        <v>127953.01459</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>161634.94696</v>
+        <v>151929.23881</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>233520.67183</v>
+        <v>233176.50847</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>191238.41759</v>
+        <v>190812.91021</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>487541.1559199999</v>
+        <v>489048.4168199999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>967275.4675499999</v>
+        <v>966932.54672</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1243416.73845</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1128548.6935</v>
+        <v>1128117.75898</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1223283.12038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1284148.94166</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>369189.48</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>36058.53482</v>
@@ -1736,37 +1742,42 @@
         <v>41393.94547</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>47281.43091999999</v>
+        <v>47281.43092</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>50702.14742</v>
+        <v>50736.95397</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>137103.83573</v>
+        <v>137117.38282</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>124418.19961</v>
+        <v>124576.49239</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>485009.5326099999</v>
+        <v>487910.70553</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>512145.21344</v>
+        <v>520966.47861</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>603747.2595899999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1123115.4679</v>
+        <v>1123118.73946</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>550419.9238400001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>551346.59051</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>820286.821</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1464.40552</v>
@@ -1778,7 +1789,7 @@
         <v>3430.53768</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4475.584449999999</v>
+        <v>4475.58445</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>11248.72674</v>
@@ -1787,7 +1798,7 @@
         <v>6791.588360000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5221.09313</v>
+        <v>5809.563880000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>10337.26052</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>45368.05112</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>12058.602</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3318.03789</v>
@@ -1814,7 +1830,7 @@
         <v>4371.59688</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>989.57766</v>
+        <v>989.5776599999999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>1028.95544</v>
@@ -1832,7 +1848,7 @@
         <v>378.84413</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>779.3369500000001</v>
+        <v>779.33695</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>2313.54513</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>5601.35088</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>436.543</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6113.5711</v>
+        <v>6113.571099999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>4429.353639999999</v>
@@ -1856,34 +1877,39 @@
         <v>6403.28569</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>6082.373390000001</v>
+        <v>6108.957230000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10939.53437</v>
+        <v>10940.39422</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16348.26782</v>
+        <v>16394.37278</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>39894.06148</v>
+        <v>40416.08205</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>49236.97459000001</v>
+        <v>54380.57816</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>45320.38248</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>101032.37471</v>
+        <v>101032.61144</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>79814.05575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>79970.32923</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>48884.771</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>178.04227</v>
@@ -1901,10 +1927,10 @@
         <v>342.65432</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>456.77558</v>
+        <v>456.7755799999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>33.68718</v>
+        <v>34.88718</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>31.81304</v>
@@ -1913,16 +1939,21 @@
         <v>2020.67019</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>423.42612</v>
+        <v>457.07002</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1141.8846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1147.8846</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>424.15</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>171.23616</v>
@@ -1931,7 +1962,7 @@
         <v>365.5653199999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>852.5554100000001</v>
+        <v>852.5554099999999</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>1429.27705</v>
@@ -1940,10 +1971,10 @@
         <v>721.0234799999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>633.4567300000001</v>
+        <v>633.45673</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3173.94453</v>
+        <v>3620.60818</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>414.75627</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>2728.14446</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6164.825</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>388.63782</v>
@@ -1976,16 +2012,16 @@
         <v>693.9359599999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2838.47719</v>
+        <v>2838.477190000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>685.5226</v>
+        <v>685.5226000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>141068.3112</v>
+        <v>141068.73492</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>816.0065400000001</v>
+        <v>816.00654</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>835.18642</v>
@@ -1994,13 +2030,18 @@
         <v>1173.58101</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3105.20305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3105.69157</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>8244.48</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>17124.37862</v>
@@ -2012,34 +2053,39 @@
         <v>17000.75647</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>14797.78249</v>
+        <v>14806.0052</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>38563.18956</v>
+        <v>38563.18955999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>74697.61822999999</v>
+        <v>74768.68132999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>262539.51338</v>
+        <v>263597.44499</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>343554.17821</v>
+        <v>345801.73069</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>426512.91144</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>908531.0214999999</v>
+        <v>908536.3207200001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>329087.20208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>329209.1582899999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>619685.33</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>44.54057</v>
@@ -2069,16 +2115,21 @@
         <v>160.08205</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>978.1687800000001</v>
+        <v>978.1687799999999</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>841.49171</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>186.51866</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>17.69611</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7069.16621</v>
+        <v>7069.166210000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>8266.74964</v>
@@ -2132,31 +2188,36 @@
         <v>21987.21705</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>64554.20084</v>
+        <v>64566.88808</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>24637.00141</v>
+        <v>24678.12613</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>31546.09483</v>
+        <v>31830.55745</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>107222.53208</v>
+        <v>108652.6412</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>118399.08695</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>82596.55026</v>
+        <v>82560.64197</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>82714.84408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>83356.79253999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>124388.12</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>31875.43366</v>
@@ -2165,37 +2226,42 @@
         <v>18948.84656</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>36741.96376</v>
+        <v>36741.96376000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>61960.39247</v>
+        <v>62029.87416</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>44896.12085</v>
+        <v>45244.48806</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>96108.55854</v>
+        <v>96276.4333</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>279820.8345</v>
+        <v>283438.75451</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>225602.48187</v>
+        <v>225800.41593</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>387797.9575499999</v>
+        <v>387797.9575500001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1083638.67653</v>
+        <v>1083647.46022</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>518495.38149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>518918.23189</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>721201.399</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3856.97595</v>
@@ -2216,7 +2282,7 @@
         <v>2095.07722</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1105.54049</v>
+        <v>1135.99152</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>522.1554699999999</v>
@@ -2228,13 +2294,18 @@
         <v>415.97599</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>733.24154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>771.3940900000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>520.907</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3846.50578</v>
@@ -2252,10 +2323,10 @@
         <v>2584.716</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4075.09851</v>
+        <v>4095.09851</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7732.72531</v>
+        <v>8266.184859999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>7065.06332</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>14072.46156</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>25058.977</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>52.49336</v>
@@ -2285,7 +2361,7 @@
         <v>299.85615</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>295.27045</v>
+        <v>295.2704499999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>443.98466</v>
@@ -2294,10 +2370,10 @@
         <v>641.74848</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>282.1091999999999</v>
+        <v>282.1092</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>979.4514200000001</v>
+        <v>979.4514199999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>459.9518600000001</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1525.97918</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>99.491</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>17816.00391</v>
@@ -2324,34 +2405,39 @@
         <v>25231.26579</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11039.74723</v>
+        <v>11096.772</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>29121.7022</v>
+        <v>29382.82414</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>63811.87837</v>
+        <v>63835.55942999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>255012.21312</v>
+        <v>256204.35299</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>191159.56351</v>
+        <v>191229.25793</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>352307.95346</v>
+        <v>352307.9534599999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>991893.29114</v>
+        <v>991894.4744100001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>451754.64746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>451972.14935</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>667221.7120000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15.22588</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>779.68951</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>227.5105</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>377.04828</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6060.71828</v>
@@ -2441,34 +2537,39 @@
         <v>9263.1445</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>46270.16731</v>
+        <v>46282.62423</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12375.06207</v>
+        <v>12462.30734</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>25458.898</v>
+        <v>25583.0917</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15643.0871</v>
+        <v>17504.95666</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>25677.96558</v>
+        <v>25806.20522</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>31048.70128</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>41658.62573</v>
+        <v>41666.22615000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>49252.31396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>49419.50992</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>28300.312</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>60056.75895</v>
@@ -2480,34 +2581,39 @@
         <v>61374.75009</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>87974.99312999999</v>
+        <v>92611.13583</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>114583.34506</v>
+        <v>115641.24763</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>138728.88963</v>
+        <v>139884.1968</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>174947.39145</v>
+        <v>184135.02566</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>207871.3262</v>
+        <v>210156.29447</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>267972.47354</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>420098.31749</v>
+        <v>420469.89739</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>385370.46971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>389211.64638</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>334543.577</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>44084.06233</v>
@@ -2519,34 +2625,39 @@
         <v>54843.75773</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>78959.43068999999</v>
+        <v>83576.45004000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>96234.88359</v>
+        <v>97275.58426000002</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>112522.40012</v>
+        <v>113654.67674</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>152206.89429</v>
+        <v>161097.63577</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>189352.578</v>
+        <v>191637.54627</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>254592.98525</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>401303.6668</v>
+        <v>401666.2094899999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>368056.93953</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>371898.1162</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>323431.989</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15972.69662</v>
@@ -2558,16 +2669,16 @@
         <v>6530.99236</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9015.56244</v>
+        <v>9034.685790000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>18348.46147</v>
+        <v>18365.66337</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26206.48951</v>
+        <v>26229.52006</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>22740.49716</v>
+        <v>23037.38989</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>18518.7482</v>
@@ -2576,55 +2687,65 @@
         <v>13379.48829</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>18794.65069</v>
+        <v>18803.6879</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>17313.53018</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>11111.588</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>61266.4636</v>
+        <v>61266.46360000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>104018.26841</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>77043.03197</v>
+        <v>77117.73165999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>62401.70878</v>
+        <v>48025.18279</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>211145.04165</v>
+        <v>209408.1556</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>80819.16903</v>
+        <v>79228.77250000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>517782.4625800001</v>
+        <v>509385.34218</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1045946.87292</v>
+        <v>1051942.31493</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1191393.56695</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>747927.1673800001</v>
+        <v>747119.14083</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>869837.19302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>927365.6539</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>133731.325</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>32675.53101</v>
@@ -2633,37 +2754,42 @@
         <v>36977.58053</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>57702.2488</v>
+        <v>57702.24879999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>74902.97934999999</v>
+        <v>78583.33754000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>87611.66738</v>
+        <v>87735.56580000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>104363.79227</v>
+        <v>105992.61608</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>108780.29109</v>
+        <v>117437.3484</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>285415.3564700001</v>
+        <v>285628.36032</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>154573.85964</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>247607.011</v>
+        <v>247826.15136</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>251905.61832</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>254376.53423</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>253796.623</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1378.98878</v>
@@ -2681,10 +2807,10 @@
         <v>956.2780499999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>941.70706</v>
+        <v>941.7070600000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3509.45409</v>
+        <v>6812.983369999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>1928.25875</v>
@@ -2696,13 +2822,18 @@
         <v>1200.05683</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6116.53469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6141.197399999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1719.098</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>31296.54223</v>
@@ -2714,34 +2845,39 @@
         <v>56105.10211</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>73218.23784999999</v>
+        <v>76898.59603999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>86655.38933000001</v>
+        <v>86779.28775</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>103422.08521</v>
+        <v>105050.90902</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>105270.837</v>
+        <v>110624.36503</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>283487.09772</v>
+        <v>283700.10157</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>153221.05942</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>246406.95417</v>
+        <v>246626.09453</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>245789.08363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>248235.33683</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>252077.525</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>33365.10316000001</v>
@@ -2753,34 +2889,39 @@
         <v>139625.18304</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>53165.361</v>
+        <v>55841.85162</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>70212.60499000001</v>
+        <v>70855.42165</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>112847.56366</v>
+        <v>117212.97635</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>124876.96709</v>
+        <v>130905.12016</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>159775.41938</v>
+        <v>159855.2122</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>140215.44977</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>288100.92513</v>
+        <v>288368.67801</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>155157.0869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>161478.77459</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>175447.117</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1504.94008</v>
@@ -2798,7 +2939,7 @@
         <v>6006.09709</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5214.50267</v>
+        <v>5223.15546</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>3532.42191</v>
@@ -2813,13 +2954,18 @@
         <v>8885.06264</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8223.749719999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8211.898800000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10032.844</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3565.68556</v>
@@ -2831,34 +2977,39 @@
         <v>2344.94368</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3292.34695</v>
+        <v>3310.64475</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1969.3873</v>
+        <v>1969.81102</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1991.80426</v>
+        <v>1995.21401</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4578.63949</v>
+        <v>7905.49958</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>4042.73683</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7391.056779999999</v>
+        <v>7391.05678</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>41864.15094</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7797.94896</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>11382.04993</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10727.518</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>28294.47752</v>
@@ -2870,34 +3021,39 @@
         <v>135483.33537</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>47043.10338</v>
+        <v>49701.2962</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>62237.12059999999</v>
+        <v>62879.51354000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>105641.25673</v>
+        <v>109994.60688</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>116765.90569</v>
+        <v>119467.19867</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>150212.01518</v>
+        <v>150291.808</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>123952.1787</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>237351.71155</v>
+        <v>237619.46443</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>139135.38822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>141884.82586</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>154686.755</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>60576.89145</v>
@@ -2906,37 +3062,42 @@
         <v>103670.55324</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-4879.90227</v>
+        <v>-4805.202579999998</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>84139.32712999999</v>
+        <v>70766.66871</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>228544.10404</v>
+        <v>226288.29975</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>72335.39764</v>
+        <v>68008.41222999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>501685.7865799999</v>
+        <v>495917.5704199999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1171586.81001</v>
+        <v>1177715.46305</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1205751.97682</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>707433.25325</v>
+        <v>706576.6141799999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>966585.72444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1020263.41354</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>212080.831</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20075.3751</v>
@@ -2948,34 +3109,39 @@
         <v>27318.05446</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>31841.10911</v>
+        <v>31845.11227</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>45618.43874000001</v>
+        <v>45655.52243</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>37560.75729</v>
+        <v>37782.72808</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>75001.70785999999</v>
+        <v>76130.39896999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>231032.05358</v>
+        <v>232226.2684</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>257243.0087</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>194347.03357</v>
+        <v>195390.98992</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>261441.56122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>263912.1040000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>98342.307</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>40501.51635</v>
@@ -2984,34 +3150,37 @@
         <v>79050.10791999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-32197.95673</v>
+        <v>-32123.25704</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>52298.21801999999</v>
+        <v>38921.55644</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>182925.6653</v>
+        <v>180632.77732</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>34774.64034999999</v>
+        <v>30225.68415</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>426684.07872</v>
+        <v>419787.17145</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>940554.75643</v>
+        <v>945489.1946500001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>948508.96812</v>
+        <v>948508.9681199999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>513086.21968</v>
+        <v>511185.62426</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>705144.16322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>756351.30954</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>113738.524</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3125</v>
@@ -3038,34 +3210,37 @@
         <v>3332</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3556</v>
+        <v>3568</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3876</v>
+        <v>3892</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3967</v>
+        <v>4004</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4001</v>
+        <v>4056</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4198</v>
+        <v>4208</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4378</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4351</v>
+        <v>4479</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4526</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>